--- a/AAAutomationFramework/src/test/resources/testdata/testdata.xlsx
+++ b/AAAutomationFramework/src/test/resources/testdata/testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinay\Associate_Architect\AutomationFramework\AA_Framework\AAAutomationFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSA\git\Associate-Architect\AAAutomationFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22349A3-23F9-4CEC-B5C7-3F62943D5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65B84F-89CB-43FC-A9AA-36176B62CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{32FAB1AC-2CC7-44A3-ACC6-DC8E7D01806C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{32FAB1AC-2CC7-44A3-ACC6-DC8E7D01806C}"/>
   </bookViews>
   <sheets>
     <sheet name="createprofile" sheetId="1" r:id="rId1"/>
-    <sheet name="updateprofile" sheetId="3" r:id="rId2"/>
-    <sheet name="deleteprofile" sheetId="4" r:id="rId3"/>
+    <sheet name="flightReservation" sheetId="5" r:id="rId2"/>
+    <sheet name="updateprofile" sheetId="3" r:id="rId3"/>
+    <sheet name="deleteprofile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +49,18 @@
   </si>
   <si>
     <t>Bunny@123456</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>Darshith</t>
+  </si>
+  <si>
+    <t>Appasanipalli</t>
   </si>
 </sst>
 </file>
@@ -410,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D253D39E-B314-42D5-8CC7-49A864EF9C58}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +435,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,10 +443,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -441,7 +457,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -454,6 +473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4525A96-7263-4DF1-A0F5-AC1FAB986CF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56806813-F6D1-4094-BE57-2F59DD9EB6B3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -498,11 +530,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8C92D7-A851-4F03-BD45-834A20B7B9C2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
